--- a/public/dispecink.xlsx
+++ b/public/dispecink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Záznamová aplikace hodin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4FAA5D-9A2E-4C1D-B033-C31B4E1AC6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90ACA1-27E3-40ED-9941-4A421FE9945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="26205" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="30885" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="4">
   <si>
     <t>KAŠPAR</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Souček</t>
-  </si>
-  <si>
-    <t>Trdlo</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,9 +621,7 @@
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">

--- a/public/dispecink.xlsx
+++ b/public/dispecink.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Záznamová aplikace hodin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90ACA1-27E3-40ED-9941-4A421FE9945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD4C661-87AC-4A81-929C-EDA189C7ECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="30885" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="3105" windowWidth="30885" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="5">
   <si>
     <t>KAŠPAR</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Souček</t>
+  </si>
+  <si>
+    <t>Horky</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +622,7 @@
         <v>45913</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
